--- a/lib/PHPExcel/templates/Report Str_USA.xlsx
+++ b/lib/PHPExcel/templates/Report Str_USA.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF0605F-F40D-4591-A160-533272E09626}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E995EE-F396-4E20-BAF4-B4D526A3346E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13215" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="En-tête" sheetId="14" r:id="rId1"/>
@@ -575,7 +575,7 @@
     <numFmt numFmtId="167" formatCode="#0.0#"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -835,6 +835,13 @@
     <font>
       <vertAlign val="superscript"/>
       <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1152,7 +1159,7 @@
     <xf numFmtId="166" fontId="22" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1527,6 +1534,9 @@
     <xf numFmtId="3" fontId="24" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90"/>
     </xf>
@@ -1560,8 +1570,8 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2138,7 +2148,7 @@
   </sheetPr>
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
@@ -2158,32 +2168,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="153" t="s">
+      <c r="B1" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="150" t="s">
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
+      <c r="G1" s="151" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="150"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="151"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="153"/>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="150"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="151"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" s="17"/>
@@ -2191,7 +2201,7 @@
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
-      <c r="G4" s="150"/>
+      <c r="G4" s="151"/>
     </row>
     <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -2204,7 +2214,7 @@
         <v>42</v>
       </c>
       <c r="F5" s="19"/>
-      <c r="G5" s="150"/>
+      <c r="G5" s="151"/>
     </row>
     <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="18"/>
@@ -2216,7 +2226,7 @@
       <c r="F6" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="150"/>
+      <c r="G6" s="151"/>
     </row>
     <row r="7" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="18"/>
@@ -2226,7 +2236,7 @@
         <v>60</v>
       </c>
       <c r="F7" s="20"/>
-      <c r="G7" s="150"/>
+      <c r="G7" s="151"/>
     </row>
     <row r="8" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="18"/>
@@ -2234,7 +2244,7 @@
       <c r="D8" s="17"/>
       <c r="E8" s="25"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="150"/>
+      <c r="G8" s="151"/>
     </row>
     <row r="9" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="18"/>
@@ -2244,7 +2254,7 @@
         <v>59</v>
       </c>
       <c r="F9" s="20"/>
-      <c r="G9" s="150"/>
+      <c r="G9" s="151"/>
     </row>
     <row r="10" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="21"/>
@@ -2252,7 +2262,7 @@
       <c r="D10" s="17"/>
       <c r="E10" s="26"/>
       <c r="F10" s="22"/>
-      <c r="G10" s="150"/>
+      <c r="G10" s="151"/>
     </row>
     <row r="11" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="18"/>
@@ -2260,7 +2270,7 @@
       <c r="D11" s="17"/>
       <c r="E11" s="25"/>
       <c r="F11" s="23"/>
-      <c r="G11" s="150"/>
+      <c r="G11" s="151"/>
     </row>
     <row r="12" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="18"/>
@@ -2277,57 +2287,57 @@
       <c r="B13" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="154" t="s">
+      <c r="C13" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="155"/>
-      <c r="E13" s="155"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="156"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="157"/>
     </row>
     <row r="14" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="35"/>
       <c r="B14" s="36"/>
-      <c r="C14" s="157"/>
-      <c r="D14" s="157"/>
-      <c r="E14" s="157"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="157"/>
-      <c r="H14" s="157"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
     </row>
     <row r="15" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37"/>
       <c r="B15" s="38"/>
-      <c r="C15" s="158"/>
-      <c r="D15" s="158"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="158"/>
-      <c r="H15" s="158"/>
+      <c r="C15" s="159"/>
+      <c r="D15" s="159"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="159"/>
     </row>
     <row r="16" spans="1:8" ht="11.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="39"/>
       <c r="B16" s="38"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
+      <c r="C16" s="160"/>
+      <c r="D16" s="160"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="160"/>
     </row>
     <row r="17" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="151" t="s">
+      <c r="A18" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="151"/>
-      <c r="C18" s="151"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="151"/>
-      <c r="H18" s="151"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
@@ -2340,21 +2350,21 @@
       <c r="B20" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="160"/>
-      <c r="D20" s="160"/>
-      <c r="E20" s="160"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="160"/>
+      <c r="C20" s="161"/>
+      <c r="D20" s="161"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="161"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="C21" s="160"/>
-      <c r="D21" s="160"/>
-      <c r="E21" s="160"/>
-      <c r="F21" s="160"/>
-      <c r="G21" s="160"/>
-      <c r="H21" s="160"/>
+      <c r="C21" s="161"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="161"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
@@ -2510,16 +2520,16 @@
       <c r="A36" s="5"/>
     </row>
     <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="151" t="s">
+      <c r="A37" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="151"/>
-      <c r="C37" s="151"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
+      <c r="B37" s="152"/>
+      <c r="C37" s="152"/>
+      <c r="D37" s="152"/>
+      <c r="E37" s="152"/>
+      <c r="F37" s="152"/>
+      <c r="G37" s="152"/>
+      <c r="H37" s="152"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
@@ -2529,11 +2539,11 @@
       <c r="B39" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="152"/>
-      <c r="D39" s="152"/>
-      <c r="E39" s="152"/>
-      <c r="F39" s="152"/>
-      <c r="G39" s="152"/>
+      <c r="C39" s="153"/>
+      <c r="D39" s="153"/>
+      <c r="E39" s="153"/>
+      <c r="F39" s="153"/>
+      <c r="G39" s="153"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
@@ -2746,10 +2756,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CY66"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="D14" sqref="D14:D15"/>
-      <selection pane="topRight" activeCell="A6" sqref="A6"/>
+      <selection pane="topRight" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2981,7 +2991,7 @@
       <c r="A26" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="161" t="s">
+      <c r="B26" s="150" t="s">
         <v>102</v>
       </c>
       <c r="C26" s="106" t="s">
@@ -3682,7 +3692,9 @@
       <c r="CX58" s="45"/>
       <c r="CY58" s="45"/>
     </row>
-    <row r="59" spans="1:103" s="121" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:103" s="121" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D59" s="162"/>
+    </row>
     <row r="60" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="72" t="s">
         <v>124</v>
@@ -3946,6 +3958,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005385EB61B379B64FA3FA00EFD5F48211" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="15b97f2a5ef9ff731d6c6b6a53c29c79">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97" xmlns:ns3="b1338d7f-541f-4bc8-84bc-74292fa164fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bdf937eed7c5c26b74985f5c8ee9608f" ns2:_="" ns3:_="">
     <xsd:import namespace="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
@@ -4110,15 +4131,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4126,6 +4138,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8534C3E6-3099-47F9-8B03-0EBDF0F03913}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8703DD9A-9B27-437E-AB91-283DE2CA9618}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4140,14 +4160,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8534C3E6-3099-47F9-8B03-0EBDF0F03913}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
